--- a/latest/analysis_data/from_pema/processing_batch1/taxonomic_assignments/Samples_with_no_results.xlsx
+++ b/latest/analysis_data/from_pema/processing_batch1/taxonomic_assignments/Samples_with_no_results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
   <si>
     <t>18S</t>
   </si>
@@ -69,10 +69,7 @@
     <t>ARMS_Koster_VH2_20190527_20200716_MF100</t>
   </si>
   <si>
-    <t>ARMS_Koster_VH1_20190527_20200716_MF100_REP</t>
-  </si>
-  <si>
-    <t>ARMS_Koster_VH1_20190527_20200716_MF500_REP</t>
+    <t>ARMS_Koster_VH1_20190527_20200716_MF100</t>
   </si>
 </sst>
 </file>
@@ -391,7 +388,7 @@
   </sheetPr>
   <dimension ref="A1:P944"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -575,7 +572,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>

--- a/latest/analysis_data/from_pema/processing_batch1/taxonomic_assignments/Samples_with_no_results.xlsx
+++ b/latest/analysis_data/from_pema/processing_batch1/taxonomic_assignments/Samples_with_no_results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
   <si>
     <t>18S</t>
   </si>
@@ -48,9 +48,6 @@
     <t>ARMS_Vigo_TorallaC_20190625_20191014_MF500</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>ARMS_GulfOfPiran_Fornace_20180815_20181118_SF_ETOH</t>
   </si>
   <si>
@@ -73,6 +70,48 @@
   </si>
   <si>
     <t>ARMS_Gdynia_GDY1_20180813_20191029_SF38_DMSO</t>
+  </si>
+  <si>
+    <t>ARMS_GulfOfPiran_Fornace_20180815_20181118_MF500_ETOH</t>
+  </si>
+  <si>
+    <t>ARMS_Crete_1HERP_20190612_20191011_MF500</t>
+  </si>
+  <si>
+    <t>ARMS_Crete_1HERP_20190612_20191011_SF</t>
+  </si>
+  <si>
+    <t>ARMS_Gdynia_GDY1_20190619_20191029_MF500</t>
+  </si>
+  <si>
+    <t>ARMS_Getxo_G2_20190624_20191016_MF100</t>
+  </si>
+  <si>
+    <t>ARMS_Crete_1HERP_20190612_20200210_MF90</t>
+  </si>
+  <si>
+    <t>ARMS_Crete_1HERP_20190612_20200618_MF90</t>
+  </si>
+  <si>
+    <t>ARMS_Crete_1HERP_20190612_20200618_SF</t>
+  </si>
+  <si>
+    <t>ARMS_Crete_2UBPC_20190924_20201211_SF</t>
+  </si>
+  <si>
+    <t>ARMS_Roscoff_BasBloS3_20190612_20200529_MF500</t>
+  </si>
+  <si>
+    <t>ARMS_Svalbard_S1_20180706_20190806_MF500</t>
+  </si>
+  <si>
+    <t>ARMS_Laesoe1_20190819_20200811_SF40</t>
+  </si>
+  <si>
+    <t>ARMS_Laesoe2_20190819_20200811_MF100</t>
+  </si>
+  <si>
+    <t>ARMS_Laesoe2_20190819_20200811_SF40</t>
   </si>
 </sst>
 </file>
@@ -371,8 +410,8 @@
   </sheetPr>
   <dimension ref="A1:S944"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -387,7 +426,8 @@
     <col min="11" max="14" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="44.6640625" style="5" customWidth="1"/>
     <col min="16" max="16" width="47.265625" style="5" customWidth="1"/>
-    <col min="17" max="18" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="43.1328125" style="5" customWidth="1"/>
+    <col min="18" max="18" width="53.86328125" style="5" customWidth="1"/>
     <col min="19" max="19" width="48.6640625" style="5" customWidth="1"/>
     <col min="20" max="16384" width="12.59765625" style="5"/>
   </cols>
@@ -415,7 +455,7 @@
         <v>45139</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1">
         <v>43831</v>
@@ -439,7 +479,7 @@
         <v>45139</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="1">
         <v>44287</v>
@@ -448,7 +488,7 @@
         <v>43647</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -512,10 +552,10 @@
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>3</v>
@@ -554,27 +594,27 @@
         <v>4</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>5</v>
@@ -591,15 +631,17 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
+      <c r="Q4" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
@@ -617,12 +659,14 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="Q5" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="6" t="s">
@@ -641,7 +685,9 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="Q6" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -663,7 +709,9 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="Q7" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -682,7 +730,9 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="Q8" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -702,7 +752,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="R9" s="3"/>
     </row>
@@ -721,7 +771,9 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="Q10" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -739,7 +791,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="Q11" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -759,7 +813,9 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="Q12" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -779,7 +835,9 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="Q13" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -799,7 +857,9 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="Q14" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="R14" s="3"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -819,7 +879,9 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="Q15" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="R15" s="3"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -19402,5 +19464,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/latest/analysis_data/from_pema/processing_batch1/taxonomic_assignments/Samples_with_no_results.xlsx
+++ b/latest/analysis_data/from_pema/processing_batch1/taxonomic_assignments/Samples_with_no_results.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
   <si>
     <t>18S</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>ARMS_Laesoe2_20190819_20200811_SF40</t>
+  </si>
+  <si>
+    <t>ARMS_Laeso_Laeso1_20190819_20200811_SF40</t>
+  </si>
+  <si>
+    <t>ARMS_Svalbard_S1_20180706_20190806_SF40_ETOH</t>
   </si>
 </sst>
 </file>
@@ -410,8 +416,8 @@
   </sheetPr>
   <dimension ref="A1:S944"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -423,7 +429,8 @@
     <col min="8" max="8" width="46.265625" style="5" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.86328125" style="5" customWidth="1"/>
+    <col min="12" max="14" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="44.6640625" style="5" customWidth="1"/>
     <col min="16" max="16" width="47.265625" style="5" customWidth="1"/>
     <col min="17" max="17" width="43.1328125" style="5" customWidth="1"/>
@@ -582,7 +589,7 @@
         <v>4</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>4</v>
@@ -626,7 +633,9 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -653,7 +662,9 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -679,7 +690,9 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>

--- a/latest/analysis_data/from_pema/processing_batch1/taxonomic_assignments/Samples_with_no_results.xlsx
+++ b/latest/analysis_data/from_pema/processing_batch1/taxonomic_assignments/Samples_with_no_results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>18S</t>
   </si>
@@ -34,45 +34,6 @@
   </si>
   <si>
     <t>ARMS_Gdynia_GDY1_20180813_20191029_SF38_DMSO</t>
-  </si>
-  <si>
-    <t>ARMS_Crete_1HERP_20190612_20191011_MF500</t>
-  </si>
-  <si>
-    <t>ARMS_Crete_1HERP_20190612_20191011_SF</t>
-  </si>
-  <si>
-    <t>ARMS_Gdynia_GDY1_20190619_20191029_MF500</t>
-  </si>
-  <si>
-    <t>ARMS_Getxo_G2_20190624_20191016_MF100</t>
-  </si>
-  <si>
-    <t>ARMS_Crete_1HERP_20190612_20200210_MF90</t>
-  </si>
-  <si>
-    <t>ARMS_Crete_1HERP_20190612_20200618_MF90</t>
-  </si>
-  <si>
-    <t>ARMS_Crete_1HERP_20190612_20200618_SF</t>
-  </si>
-  <si>
-    <t>ARMS_Crete_2UBPC_20190924_20201211_SF</t>
-  </si>
-  <si>
-    <t>ARMS_Roscoff_BasBloS3_20190612_20200529_MF500</t>
-  </si>
-  <si>
-    <t>ARMS_Svalbard_S1_20180706_20190806_MF500</t>
-  </si>
-  <si>
-    <t>ARMS_Laesoe1_20190819_20200811_SF40</t>
-  </si>
-  <si>
-    <t>ARMS_Laesoe2_20190819_20200811_MF100</t>
-  </si>
-  <si>
-    <t>ARMS_Laesoe2_20190819_20200811_SF40</t>
   </si>
   <si>
     <t>ARMS_GulfOfPiran_Fornace_20180815_20181118_SF_ETOH_r1</t>
@@ -461,8 +422,8 @@
   </sheetPr>
   <dimension ref="A1:S944"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -604,13 +565,13 @@
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
@@ -634,7 +595,7 @@
         <v>3</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>3</v>
@@ -646,30 +607,30 @@
         <v>3</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -679,26 +640,26 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -708,7 +669,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -716,17 +677,17 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -736,7 +697,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -744,7 +705,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="R6" s="3"/>
     </row>
@@ -752,7 +713,7 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -768,7 +729,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="R7" s="3"/>
     </row>
@@ -789,7 +750,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="R8" s="3"/>
     </row>
@@ -810,7 +771,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="R9" s="3"/>
     </row>
@@ -830,18 +791,12 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="5" t="str">
-        <f>A11&amp;"_r1"</f>
-        <v>ARMS_Crete_1HERP_20190612_20191011_MF500_r1</v>
-      </c>
+      <c r="A11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -857,18 +812,12 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="5" t="str">
-        <f t="shared" ref="B12:B23" si="0">A12&amp;"_r1"</f>
-        <v>ARMS_Crete_1HERP_20190612_20191011_SF_r1</v>
-      </c>
+      <c r="A12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -884,18 +833,12 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ARMS_Crete_1HERP_20190612_20200210_MF90_r1</v>
-      </c>
+      <c r="A13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -911,18 +854,12 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ARMS_Crete_1HERP_20190612_20200618_MF90_r1</v>
-      </c>
+      <c r="A14" s="3"/>
       <c r="C14" s="6"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -938,18 +875,12 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="R14" s="3"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ARMS_Crete_1HERP_20190612_20200618_SF_r1</v>
-      </c>
+      <c r="A15" s="3"/>
       <c r="C15" s="6"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -965,18 +896,12 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="R15" s="3"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ARMS_Crete_2UBPC_20190924_20201211_SF_r1</v>
-      </c>
+      <c r="A16" s="3"/>
       <c r="C16" s="6"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -995,13 +920,7 @@
       <c r="R16" s="3"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ARMS_Gdynia_GDY1_20190619_20191029_MF500_r1</v>
-      </c>
+      <c r="A17" s="3"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1020,13 +939,7 @@
       <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ARMS_Getxo_G2_20190624_20191016_MF100_r1</v>
-      </c>
+      <c r="A18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1044,13 +957,7 @@
       <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ARMS_Laesoe1_20190819_20200811_SF40_r1</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="C19" s="6"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1069,13 +976,7 @@
       <c r="R19" s="3"/>
     </row>
     <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ARMS_Laesoe2_20190819_20200811_MF100_r1</v>
-      </c>
+      <c r="A20" s="3"/>
       <c r="C20" s="6"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1094,13 +995,7 @@
       <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ARMS_Laesoe2_20190819_20200811_SF40_r1</v>
-      </c>
+      <c r="A21" s="3"/>
       <c r="C21" s="6"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1119,13 +1014,7 @@
       <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ARMS_Roscoff_BasBloS3_20190612_20200529_MF500_r1</v>
-      </c>
+      <c r="A22" s="3"/>
       <c r="C22" s="6"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1144,13 +1033,7 @@
       <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ARMS_Svalbard_S1_20180706_20190806_MF500_r1</v>
-      </c>
+      <c r="A23" s="3"/>
       <c r="C23" s="6"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
